--- a/data/level1.xlsx
+++ b/data/level1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7224"/>
   </bookViews>
   <sheets>
     <sheet name="level1" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="141">
     <dxf>
       <fill>
         <gradientFill degree="180">
@@ -130,9 +130,14 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF800080"/>
-        </patternFill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
       </fill>
     </dxf>
     <dxf>
@@ -203,48 +208,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3366CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <gradientFill degree="180">
           <stop position="0">
             <color theme="0"/>
@@ -257,6 +220,65 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <gradientFill>
           <stop position="0">
             <color theme="0"/>
@@ -268,6 +290,119 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <gradientFill degree="180">
           <stop position="0">
@@ -292,6 +427,18 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -354,6 +501,604 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF800080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -792,7 +1537,7 @@
   <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -802,165 +1547,161 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G1" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H1" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K1" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L1" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M1" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N1" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O1" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P1" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q1" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R1" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S1" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T1" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U1" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V1" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W1" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X1" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y1" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z1" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA1" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB1" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC1" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD1" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V2" s="1">
         <v>0</v>
@@ -969,19 +1710,19 @@
         <v>0</v>
       </c>
       <c r="X2" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC2" s="1">
         <v>7</v>
@@ -989,12 +1730,8 @@
       <c r="AD2" s="1">
         <v>0</v>
       </c>
-      <c r="AE2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>0</v>
-      </c>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -1070,10 +1807,10 @@
         <v>24</v>
       </c>
       <c r="Y3" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z3" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="1">
         <v>0</v>
@@ -1087,12 +1824,8 @@
       <c r="AD3" s="1">
         <v>0</v>
       </c>
-      <c r="AE3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>0</v>
-      </c>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -1185,12 +1918,8 @@
       <c r="AD4" s="1">
         <v>0</v>
       </c>
-      <c r="AE4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>0</v>
-      </c>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -1283,12 +2012,8 @@
       <c r="AD5" s="1">
         <v>0</v>
       </c>
-      <c r="AE5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>0</v>
-      </c>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -1381,12 +2106,8 @@
       <c r="AD6" s="1">
         <v>0</v>
       </c>
-      <c r="AE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>0</v>
-      </c>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -1479,12 +2200,8 @@
       <c r="AD7" s="1">
         <v>0</v>
       </c>
-      <c r="AE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>0</v>
-      </c>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -1577,12 +2294,8 @@
       <c r="AD8" s="1">
         <v>0</v>
       </c>
-      <c r="AE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>0</v>
-      </c>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1604,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -1675,12 +2388,8 @@
       <c r="AD9" s="1">
         <v>0</v>
       </c>
-      <c r="AE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>0</v>
-      </c>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -1773,12 +2482,8 @@
       <c r="AD10" s="1">
         <v>0</v>
       </c>
-      <c r="AE10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="1">
-        <v>0</v>
-      </c>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -1871,12 +2576,8 @@
       <c r="AD11" s="1">
         <v>0</v>
       </c>
-      <c r="AE11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="1">
-        <v>0</v>
-      </c>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -1969,67 +2670,63 @@
       <c r="AD12" s="1">
         <v>0</v>
       </c>
-      <c r="AE12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="1">
-        <v>0</v>
-      </c>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AF12">
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="17" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>24</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/level1.xlsx
+++ b/data/level1.xlsx
@@ -65,7 +65,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="00"/>
+    <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -98,12 +98,12 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="141">
+  <dxfs count="18">
     <dxf>
       <fill>
         <gradientFill degree="180">
@@ -216,998 +216,6 @@
             <color rgb="FF800080"/>
           </stop>
         </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3366CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FFFFFF00"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0066"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FFFFFF00"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0066"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF800080"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3366CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FFFFFF00"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0066"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FFFFFF00"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0066"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF800080"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3366CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FFFFFF00"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0066"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FFFFFF00"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0066"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF800080"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3366CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FFFFFF00"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0066"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FFFFFF00"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0066"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF800080"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3366CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FFFFFF00"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0066"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FFFFFF00"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0066"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF800080"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3366CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FFFFFF00"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0066"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FFFFFF00"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0066"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF800080"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3366CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -1537,7 +545,7 @@
   <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1680,10 +688,10 @@
         <v>2</v>
       </c>
       <c r="N2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>2</v>
@@ -1704,10 +712,10 @@
         <v>2</v>
       </c>
       <c r="V2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X2" s="1">
         <v>3</v>
@@ -2129,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>

--- a/data/level1.xlsx
+++ b/data/level1.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7224"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7224" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="level1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="level2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -103,7 +104,156 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <gradientFill degree="180">
@@ -544,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD12" sqref="A1:AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1683,58 +1833,58 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AF12">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="7" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="8" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="9" operator="equal">
       <formula>22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="10" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="11" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
       <formula>23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>24</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1744,6 +1894,1209 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="32" width="3.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>0</v>
+      </c>
+      <c r="R1" s="1">
+        <v>0</v>
+      </c>
+      <c r="S1" s="1">
+        <v>0</v>
+      </c>
+      <c r="T1" s="1">
+        <v>0</v>
+      </c>
+      <c r="U1" s="1">
+        <v>0</v>
+      </c>
+      <c r="V1" s="1">
+        <v>0</v>
+      </c>
+      <c r="W1" s="1">
+        <v>0</v>
+      </c>
+      <c r="X1" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>2</v>
+      </c>
+      <c r="R2" s="1">
+        <v>2</v>
+      </c>
+      <c r="S2" s="1">
+        <v>2</v>
+      </c>
+      <c r="T2" s="1">
+        <v>2</v>
+      </c>
+      <c r="U2" s="1">
+        <v>2</v>
+      </c>
+      <c r="V2" s="1">
+        <v>2</v>
+      </c>
+      <c r="W2" s="1">
+        <v>2</v>
+      </c>
+      <c r="X2" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>12</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>24</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>14</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>3</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>2</v>
+      </c>
+      <c r="R4" s="1">
+        <v>4</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>2</v>
+      </c>
+      <c r="W4" s="1">
+        <v>2</v>
+      </c>
+      <c r="X4" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>23</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>12</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>2</v>
+      </c>
+      <c r="O6" s="1">
+        <v>3</v>
+      </c>
+      <c r="P6" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>2</v>
+      </c>
+      <c r="R6" s="1">
+        <v>4</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>2</v>
+      </c>
+      <c r="W6" s="1">
+        <v>2</v>
+      </c>
+      <c r="X6" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>21</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>15</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2</v>
+      </c>
+      <c r="N8" s="1">
+        <v>2</v>
+      </c>
+      <c r="O8" s="1">
+        <v>3</v>
+      </c>
+      <c r="P8" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>2</v>
+      </c>
+      <c r="R8" s="1">
+        <v>4</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1</v>
+      </c>
+      <c r="V8" s="1">
+        <v>2</v>
+      </c>
+      <c r="W8" s="1">
+        <v>2</v>
+      </c>
+      <c r="X8" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>23</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <v>24</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2</v>
+      </c>
+      <c r="N10" s="1">
+        <v>2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>3</v>
+      </c>
+      <c r="P10" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>2</v>
+      </c>
+      <c r="R10" s="1">
+        <v>4</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>2</v>
+      </c>
+      <c r="W10" s="1">
+        <v>2</v>
+      </c>
+      <c r="X10" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>22</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>13</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>22</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>13</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1">
+        <v>5</v>
+      </c>
+      <c r="J12" s="1">
+        <v>21</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>5</v>
+      </c>
+      <c r="M12" s="1">
+        <v>5</v>
+      </c>
+      <c r="N12" s="1">
+        <v>5</v>
+      </c>
+      <c r="O12" s="1">
+        <v>5</v>
+      </c>
+      <c r="P12" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>5</v>
+      </c>
+      <c r="R12" s="1">
+        <v>5</v>
+      </c>
+      <c r="S12" s="1">
+        <v>21</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>5</v>
+      </c>
+      <c r="V12" s="1">
+        <v>5</v>
+      </c>
+      <c r="W12" s="1">
+        <v>5</v>
+      </c>
+      <c r="X12" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>21</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:AF12">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>23</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+      <formula>22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>21</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="17" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="18" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>

--- a/data/level1.xlsx
+++ b/data/level1.xlsx
@@ -1898,7 +1898,7 @@
   <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="AG4" sqref="AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1994,9 +1994,7 @@
       <c r="AC1" s="1">
         <v>0</v>
       </c>
-      <c r="AD1" s="1">
-        <v>0</v>
-      </c>
+      <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
@@ -2088,9 +2086,7 @@
       <c r="AC2" s="1">
         <v>7</v>
       </c>
-      <c r="AD2" s="1">
-        <v>0</v>
-      </c>
+      <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
     </row>
@@ -2182,9 +2178,7 @@
       <c r="AC3" s="1">
         <v>7</v>
       </c>
-      <c r="AD3" s="1">
-        <v>0</v>
-      </c>
+      <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
     </row>
@@ -2276,9 +2270,7 @@
       <c r="AC4" s="1">
         <v>7</v>
       </c>
-      <c r="AD4" s="1">
-        <v>0</v>
-      </c>
+      <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
     </row>
@@ -2370,9 +2362,7 @@
       <c r="AC5" s="1">
         <v>7</v>
       </c>
-      <c r="AD5" s="1">
-        <v>0</v>
-      </c>
+      <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
     </row>
@@ -2464,9 +2454,7 @@
       <c r="AC6" s="1">
         <v>7</v>
       </c>
-      <c r="AD6" s="1">
-        <v>0</v>
-      </c>
+      <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
     </row>
@@ -2558,9 +2546,7 @@
       <c r="AC7" s="1">
         <v>7</v>
       </c>
-      <c r="AD7" s="1">
-        <v>0</v>
-      </c>
+      <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
     </row>
@@ -2652,9 +2638,7 @@
       <c r="AC8" s="1">
         <v>7</v>
       </c>
-      <c r="AD8" s="1">
-        <v>0</v>
-      </c>
+      <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
     </row>
@@ -2746,9 +2730,7 @@
       <c r="AC9" s="1">
         <v>7</v>
       </c>
-      <c r="AD9" s="1">
-        <v>0</v>
-      </c>
+      <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
     </row>
@@ -2840,9 +2822,7 @@
       <c r="AC10" s="1">
         <v>7</v>
       </c>
-      <c r="AD10" s="1">
-        <v>0</v>
-      </c>
+      <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
     </row>
@@ -2934,9 +2914,7 @@
       <c r="AC11" s="1">
         <v>7</v>
       </c>
-      <c r="AD11" s="1">
-        <v>0</v>
-      </c>
+      <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
     </row>
@@ -3028,9 +3006,7 @@
       <c r="AC12" s="1">
         <v>5</v>
       </c>
-      <c r="AD12" s="1">
-        <v>0</v>
-      </c>
+      <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
     </row>

--- a/data/level1.xlsx
+++ b/data/level1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7224" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7224"/>
   </bookViews>
   <sheets>
     <sheet name="level1" sheetId="1" r:id="rId1"/>
@@ -104,43 +104,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FFFFFF00"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0066"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FFFFFF00"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0066"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
+  <dxfs count="414">
     <dxf>
       <font>
         <color theme="0"/>
@@ -256,36 +220,36 @@
     </dxf>
     <dxf>
       <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <gradientFill degree="180">
           <stop position="0">
             <color rgb="FFFFFF00"/>
           </stop>
           <stop position="1">
             <color rgb="FFFF0066"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FFFFFF00"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0066"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
           </stop>
         </gradientFill>
       </fill>
@@ -401,6 +365,3171 @@
         <patternFill>
           <bgColor rgb="FF3366CC"/>
         </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
       </fill>
     </dxf>
   </dxfs>
@@ -692,10 +3821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF12"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD12" sqref="A1:AD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -705,91 +3834,91 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD1" s="1">
         <v>0</v>
@@ -802,85 +3931,85 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="H2" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="I2" s="1">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="J2" s="1">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="K2" s="1">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="L2" s="1">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="M2" s="1">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="N2" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="P2" s="1">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="1">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="R2" s="1">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="S2" s="1">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="T2" s="1">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="U2" s="1">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="V2" s="1">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="W2" s="1">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="X2" s="1">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="Y2" s="1">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="Z2" s="1">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="AA2" s="1">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="AB2" s="1">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="AC2" s="1">
         <v>7</v>
@@ -896,85 +4025,85 @@
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M3" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3" s="1">
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X3" s="1">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="Y3" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="Z3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC3" s="1">
         <v>7</v>
@@ -996,22 +4125,22 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -1020,25 +4149,25 @@
         <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1">
         <v>0</v>
@@ -1047,22 +4176,22 @@
         <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X4" s="1">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="Y4" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Z4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="1">
         <v>0</v>
@@ -1090,22 +4219,22 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -1114,25 +4243,25 @@
         <v>0</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O5" s="1">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="R5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S5" s="1">
         <v>0</v>
@@ -1141,22 +4270,22 @@
         <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA5" s="1">
         <v>0</v>
@@ -1184,22 +4313,22 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -1208,25 +4337,25 @@
         <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="P6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="R6" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1">
         <v>0</v>
@@ -1235,22 +4364,22 @@
         <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X6" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="1">
         <v>0</v>
@@ -1278,22 +4407,22 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1302,25 +4431,25 @@
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S7" s="1">
         <v>0</v>
@@ -1329,22 +4458,22 @@
         <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X7" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA7" s="1">
         <v>0</v>
@@ -1372,22 +4501,22 @@
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="H8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1396,25 +4525,25 @@
         <v>0</v>
       </c>
       <c r="L8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
@@ -1423,22 +4552,22 @@
         <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="W8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="1">
         <v>0</v>
@@ -1466,22 +4595,22 @@
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1490,25 +4619,25 @@
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9" s="1">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="P9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S9" s="1">
         <v>0</v>
@@ -1517,22 +4646,22 @@
         <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X9" s="1">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="Y9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA9" s="1">
         <v>0</v>
@@ -1560,22 +4689,22 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1584,25 +4713,25 @@
         <v>0</v>
       </c>
       <c r="L10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="P10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R10" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1">
         <v>0</v>
@@ -1611,22 +4740,22 @@
         <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X10" s="1">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="Y10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="1">
         <v>0</v>
@@ -1654,22 +4783,22 @@
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -1678,25 +4807,25 @@
         <v>0</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="N11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O11" s="1">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="P11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R11" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
@@ -1705,22 +4834,22 @@
         <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="W11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X11" s="1">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="Y11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z11" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA11" s="1">
         <v>0</v>
@@ -1739,91 +4868,91 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="H12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
       </c>
       <c r="L12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="P12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="T12" s="1">
         <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V12" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="W12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X12" s="1">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="Y12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="1">
         <v>0</v>
       </c>
       <c r="AC12" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD12" s="1">
         <v>0</v>
@@ -1831,61 +4960,379 @@
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
     </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1">
+        <v>21</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>5</v>
+      </c>
+      <c r="M13" s="1">
+        <v>5</v>
+      </c>
+      <c r="N13" s="1">
+        <v>5</v>
+      </c>
+      <c r="O13" s="1">
+        <v>5</v>
+      </c>
+      <c r="P13" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>5</v>
+      </c>
+      <c r="R13" s="1">
+        <v>5</v>
+      </c>
+      <c r="S13" s="1">
+        <v>21</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>5</v>
+      </c>
+      <c r="V13" s="1">
+        <v>5</v>
+      </c>
+      <c r="W13" s="1">
+        <v>5</v>
+      </c>
+      <c r="X13" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>21</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:AF12">
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
+  <conditionalFormatting sqref="A3:AF13 AD2:AF2">
+    <cfRule type="cellIs" dxfId="305" priority="73" operator="equal">
+      <formula>24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="304" priority="74" operator="equal">
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="303" priority="75" operator="equal">
+      <formula>23</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="302" priority="76" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="77" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="78" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="79" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="80" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="81" operator="equal">
       <formula>22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="82" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="83" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="84" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="85" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="86" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="87" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="88" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="89" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="90" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:AC2">
+    <cfRule type="cellIs" dxfId="215" priority="55" operator="equal">
+      <formula>24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="56" operator="equal">
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="57" operator="equal">
       <formula>23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="58" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="211" priority="59" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="60" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="209" priority="61" operator="equal">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="62" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="207" priority="63" operator="equal">
+      <formula>22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="64" operator="equal">
+      <formula>21</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="65" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="66" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="203" priority="67" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="68" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="69" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="70" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="71" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="72" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:M1">
+    <cfRule type="cellIs" dxfId="179" priority="37" operator="equal">
+      <formula>24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="38" operator="equal">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="39" operator="equal">
+      <formula>23</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="40" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="41" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="42" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="43" operator="equal">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="44" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="45" operator="equal">
+      <formula>22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="46" operator="equal">
+      <formula>21</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="47" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="48" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="167" priority="49" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="50" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="51" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="52" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="53" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="54" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:AD1">
+    <cfRule type="cellIs" dxfId="143" priority="19" operator="equal">
       <formula>24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="20" operator="equal">
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="21" operator="equal">
+      <formula>23</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="22" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="23" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="24" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="25" operator="equal">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="26" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="27" operator="equal">
+      <formula>22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="28" operator="equal">
+      <formula>21</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="29" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="30" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="31" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="32" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="33" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="34" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="35" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="36" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE1:AF1">
+    <cfRule type="cellIs" dxfId="89" priority="1" operator="equal">
+      <formula>24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="2" operator="equal">
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="3" operator="equal">
+      <formula>23</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="4" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="5" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="6" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="7" operator="equal">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="8" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="9" operator="equal">
+      <formula>22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="10" operator="equal">
+      <formula>21</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="11" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="12" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="13" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="15" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="16" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="17" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="18" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1895,10 +5342,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF12"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG4" sqref="AG4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1908,91 +5355,91 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
@@ -2003,85 +5450,85 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="G2" s="1">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="H2" s="1">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="I2" s="1">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="J2" s="1">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="K2" s="1">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="L2" s="1">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="M2" s="1">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="N2" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="P2" s="1">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="1">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="R2" s="1">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="S2" s="1">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="T2" s="1">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="U2" s="1">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="V2" s="1">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="W2" s="1">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="X2" s="1">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="Y2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="1">
         <v>7</v>
@@ -2095,40 +5542,40 @@
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M3" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N3" s="1">
         <v>0</v>
@@ -2137,43 +5584,43 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X3" s="1">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="Y3" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="Z3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC3" s="1">
         <v>7</v>
@@ -2193,22 +5640,22 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -2217,25 +5664,25 @@
         <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1">
         <v>0</v>
@@ -2244,22 +5691,22 @@
         <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X4" s="1">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="Y4" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Z4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="1">
         <v>0</v>
@@ -2285,22 +5732,22 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -2309,25 +5756,25 @@
         <v>0</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O5" s="1">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="R5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S5" s="1">
         <v>0</v>
@@ -2336,22 +5783,22 @@
         <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA5" s="1">
         <v>0</v>
@@ -2377,22 +5824,22 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -2401,25 +5848,25 @@
         <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="P6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="R6" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1">
         <v>0</v>
@@ -2428,25 +5875,25 @@
         <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X6" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="1">
         <v>0</v>
@@ -2469,22 +5916,22 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -2493,25 +5940,25 @@
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S7" s="1">
         <v>0</v>
@@ -2520,25 +5967,25 @@
         <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X7" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA7" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AB7" s="1">
         <v>0</v>
@@ -2561,22 +6008,22 @@
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="H8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -2585,25 +6032,25 @@
         <v>0</v>
       </c>
       <c r="L8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
@@ -2612,22 +6059,22 @@
         <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="1">
         <v>0</v>
@@ -2653,22 +6100,22 @@
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -2677,25 +6124,25 @@
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9" s="1">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="P9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S9" s="1">
         <v>0</v>
@@ -2704,22 +6151,22 @@
         <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X9" s="1">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="Y9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA9" s="1">
         <v>0</v>
@@ -2745,22 +6192,22 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -2769,25 +6216,25 @@
         <v>0</v>
       </c>
       <c r="L10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="P10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R10" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1">
         <v>0</v>
@@ -2796,22 +6243,22 @@
         <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X10" s="1">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="Y10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="1">
         <v>0</v>
@@ -2837,22 +6284,22 @@
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -2861,25 +6308,25 @@
         <v>0</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="N11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O11" s="1">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="P11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R11" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
@@ -2888,22 +6335,22 @@
         <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X11" s="1">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="Y11" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Z11" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA11" s="1">
         <v>0</v>
@@ -2920,150 +6367,410 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="H12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
       </c>
       <c r="L12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="P12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="T12" s="1">
         <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X12" s="1">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="Y12" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Z12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="1">
         <v>0</v>
       </c>
       <c r="AC12" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
     </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1">
+        <v>21</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>5</v>
+      </c>
+      <c r="M13" s="1">
+        <v>5</v>
+      </c>
+      <c r="N13" s="1">
+        <v>5</v>
+      </c>
+      <c r="O13" s="1">
+        <v>5</v>
+      </c>
+      <c r="P13" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>5</v>
+      </c>
+      <c r="R13" s="1">
+        <v>5</v>
+      </c>
+      <c r="S13" s="1">
+        <v>21</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>5</v>
+      </c>
+      <c r="V13" s="1">
+        <v>5</v>
+      </c>
+      <c r="W13" s="1">
+        <v>5</v>
+      </c>
+      <c r="X13" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>21</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:AF12">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="A2:AF13">
+    <cfRule type="cellIs" dxfId="287" priority="55" operator="equal">
       <formula>24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="56" operator="equal">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="57" operator="equal">
       <formula>23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="58" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="59" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="60" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="61" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="62" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="63" operator="equal">
       <formula>22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="64" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="65" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="66" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="67" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="68" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="69" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="70" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="71" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="72" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:M1">
+    <cfRule type="cellIs" dxfId="269" priority="37" operator="equal">
+      <formula>24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="268" priority="38" operator="equal">
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="267" priority="39" operator="equal">
+      <formula>23</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="266" priority="40" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="265" priority="41" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="264" priority="42" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="263" priority="43" operator="equal">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="44" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="261" priority="45" operator="equal">
+      <formula>22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="46" operator="equal">
+      <formula>21</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="259" priority="47" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="258" priority="48" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="257" priority="49" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="50" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="255" priority="51" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="52" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="53" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="54" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:AC1">
+    <cfRule type="cellIs" dxfId="251" priority="19" operator="equal">
+      <formula>24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="20" operator="equal">
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="249" priority="21" operator="equal">
+      <formula>23</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="22" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="23" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="24" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="245" priority="25" operator="equal">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="26" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="243" priority="27" operator="equal">
+      <formula>22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="242" priority="28" operator="equal">
+      <formula>21</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="29" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="30" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="239" priority="31" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="32" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="237" priority="33" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="236" priority="34" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="35" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="36" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD1:AF1">
+    <cfRule type="cellIs" dxfId="233" priority="1" operator="equal">
+      <formula>24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="2" operator="equal">
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="231" priority="3" operator="equal">
+      <formula>23</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="230" priority="4" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="5" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="6" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="227" priority="7" operator="equal">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="8" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="9" operator="equal">
+      <formula>22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="224" priority="10" operator="equal">
+      <formula>21</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="11" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="12" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="221" priority="13" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="219" priority="15" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="16" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="17" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/level1.xlsx
+++ b/data/level1.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7224"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7224" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="level1" sheetId="1" r:id="rId1"/>
     <sheet name="level2" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="level3" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="level1 (2)" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -104,7 +106,3434 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="414">
+  <dxfs count="828">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF800080"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3366CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF7030A0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0066"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -3823,8 +7252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:AB2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3928,13 +7357,13 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1">
         <v>29</v>
@@ -3949,70 +7378,70 @@
         <v>28</v>
       </c>
       <c r="H2" s="1">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1">
         <v>30</v>
-      </c>
-      <c r="I2" s="1">
-        <v>31</v>
       </c>
       <c r="J2" s="1">
         <v>32</v>
       </c>
       <c r="K2" s="1">
+        <v>31</v>
+      </c>
+      <c r="L2" s="1">
+        <v>32</v>
+      </c>
+      <c r="M2" s="1">
+        <v>31</v>
+      </c>
+      <c r="N2" s="1">
+        <v>32</v>
+      </c>
+      <c r="O2" s="1">
         <v>33</v>
       </c>
-      <c r="L2" s="1">
-        <v>33</v>
-      </c>
-      <c r="M2" s="1">
-        <v>33</v>
-      </c>
-      <c r="N2" s="1">
-        <v>33</v>
-      </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>40</v>
+      </c>
+      <c r="R2" s="1">
+        <v>39</v>
+      </c>
+      <c r="S2" s="1">
+        <v>40</v>
+      </c>
+      <c r="T2" s="1">
+        <v>39</v>
+      </c>
+      <c r="U2" s="1">
+        <v>40</v>
+      </c>
+      <c r="V2" s="1">
+        <v>38</v>
+      </c>
+      <c r="W2" s="1">
+        <v>37</v>
+      </c>
+      <c r="X2" s="1">
+        <v>36</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>37</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>36</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>37</v>
+      </c>
+      <c r="AB2" s="1">
         <v>35</v>
       </c>
-      <c r="P2" s="1">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>33</v>
-      </c>
-      <c r="R2" s="1">
-        <v>33</v>
-      </c>
-      <c r="S2" s="1">
-        <v>33</v>
-      </c>
-      <c r="T2" s="1">
-        <v>33</v>
-      </c>
-      <c r="U2" s="1">
-        <v>33</v>
-      </c>
-      <c r="V2" s="1">
-        <v>33</v>
-      </c>
-      <c r="W2" s="1">
-        <v>33</v>
-      </c>
-      <c r="X2" s="1">
-        <v>33</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>33</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>33</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>33</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>33</v>
-      </c>
       <c r="AC2" s="1">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="AD2" s="1">
         <v>0</v>
@@ -4128,7 +7557,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -4152,7 +7581,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -4161,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
         <v>0</v>
@@ -4188,7 +7617,7 @@
         <v>24</v>
       </c>
       <c r="Y4" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>0</v>
@@ -4352,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -4504,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -4555,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W8" s="1">
         <v>0</v>
@@ -4880,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -4904,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
         <v>0</v>
@@ -5056,282 +8485,282 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:AF13 AD2:AF2">
-    <cfRule type="cellIs" dxfId="305" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="827" priority="73" operator="equal">
       <formula>24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="826" priority="74" operator="equal">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="825" priority="75" operator="equal">
       <formula>23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="824" priority="76" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="823" priority="77" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="822" priority="78" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="821" priority="79" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="820" priority="80" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="819" priority="81" operator="equal">
       <formula>22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="818" priority="82" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="817" priority="83" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="816" priority="84" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="815" priority="85" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="814" priority="86" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="813" priority="87" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="812" priority="88" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="811" priority="89" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="810" priority="90" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:AC2">
-    <cfRule type="cellIs" dxfId="215" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="809" priority="55" operator="equal">
       <formula>24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="808" priority="56" operator="equal">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="807" priority="57" operator="equal">
       <formula>23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="806" priority="58" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="805" priority="59" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="804" priority="60" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="803" priority="61" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="802" priority="62" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="801" priority="63" operator="equal">
       <formula>22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="800" priority="64" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="799" priority="65" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="798" priority="66" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="797" priority="67" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="796" priority="68" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="795" priority="69" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="794" priority="70" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="793" priority="71" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="792" priority="72" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:M1">
-    <cfRule type="cellIs" dxfId="179" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="791" priority="37" operator="equal">
       <formula>24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="790" priority="38" operator="equal">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="789" priority="39" operator="equal">
       <formula>23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="788" priority="40" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="787" priority="41" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="786" priority="42" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="785" priority="43" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="784" priority="44" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="783" priority="45" operator="equal">
       <formula>22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="782" priority="46" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="781" priority="47" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="780" priority="48" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="779" priority="49" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="778" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="777" priority="51" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="776" priority="52" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="775" priority="53" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="774" priority="54" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:AD1">
-    <cfRule type="cellIs" dxfId="143" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="773" priority="19" operator="equal">
       <formula>24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="772" priority="20" operator="equal">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="771" priority="21" operator="equal">
       <formula>23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="770" priority="22" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="769" priority="23" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="768" priority="24" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="767" priority="25" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="766" priority="26" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="765" priority="27" operator="equal">
       <formula>22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="764" priority="28" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="763" priority="29" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="762" priority="30" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="761" priority="31" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="760" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="759" priority="33" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="758" priority="34" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="757" priority="35" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="756" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE1:AF1">
-    <cfRule type="cellIs" dxfId="89" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="755" priority="1" operator="equal">
       <formula>24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="754" priority="2" operator="equal">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="753" priority="3" operator="equal">
       <formula>23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="752" priority="4" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="751" priority="5" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="750" priority="6" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="749" priority="7" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="748" priority="8" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="747" priority="9" operator="equal">
       <formula>22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="746" priority="10" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="745" priority="11" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="744" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="743" priority="13" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="742" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="741" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="740" priority="16" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="739" priority="17" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="738" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5344,8 +8773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AC2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5441,99 +8870,103 @@
       <c r="AC1" s="1">
         <v>2</v>
       </c>
-      <c r="AD1" s="1"/>
+      <c r="AD1" s="1">
+        <v>0</v>
+      </c>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1">
+        <v>32</v>
+      </c>
+      <c r="K2" s="1">
         <v>31</v>
       </c>
-      <c r="C2" s="1">
+      <c r="L2" s="1">
         <v>32</v>
       </c>
-      <c r="D2" s="1">
+      <c r="M2" s="1">
+        <v>31</v>
+      </c>
+      <c r="N2" s="1">
+        <v>32</v>
+      </c>
+      <c r="O2" s="1">
+        <v>33</v>
+      </c>
+      <c r="P2" s="1">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>40</v>
+      </c>
+      <c r="R2" s="1">
+        <v>39</v>
+      </c>
+      <c r="S2" s="1">
+        <v>40</v>
+      </c>
+      <c r="T2" s="1">
+        <v>39</v>
+      </c>
+      <c r="U2" s="1">
+        <v>40</v>
+      </c>
+      <c r="V2" s="1">
+        <v>38</v>
+      </c>
+      <c r="W2" s="1">
+        <v>37</v>
+      </c>
+      <c r="X2" s="1">
+        <v>36</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>37</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>36</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>37</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="1">
         <v>34</v>
       </c>
-      <c r="E2" s="1">
-        <v>33</v>
-      </c>
-      <c r="F2" s="1">
-        <v>34</v>
-      </c>
-      <c r="G2" s="1">
-        <v>33</v>
-      </c>
-      <c r="H2" s="1">
-        <v>35</v>
-      </c>
-      <c r="I2" s="1">
-        <v>36</v>
-      </c>
-      <c r="J2" s="1">
-        <v>37</v>
-      </c>
-      <c r="K2" s="1">
-        <v>36</v>
-      </c>
-      <c r="L2" s="1">
-        <v>36</v>
-      </c>
-      <c r="M2" s="1">
-        <v>36</v>
-      </c>
-      <c r="N2" s="1">
-        <v>38</v>
-      </c>
-      <c r="O2" s="1">
-        <v>39</v>
-      </c>
-      <c r="P2" s="1">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>36</v>
-      </c>
-      <c r="R2" s="1">
-        <v>37</v>
-      </c>
-      <c r="S2" s="1">
-        <v>36</v>
-      </c>
-      <c r="T2" s="1">
-        <v>35</v>
-      </c>
-      <c r="U2" s="1">
-        <v>33</v>
-      </c>
-      <c r="V2" s="1">
-        <v>34</v>
-      </c>
-      <c r="W2" s="1">
-        <v>33</v>
-      </c>
-      <c r="X2" s="1">
-        <v>34</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>7</v>
-      </c>
-      <c r="AD2" s="1"/>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
     </row>
@@ -5578,13 +9011,13 @@
         <v>2</v>
       </c>
       <c r="N3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3" s="1">
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="1">
         <v>2</v>
@@ -5625,7 +9058,9 @@
       <c r="AC3" s="1">
         <v>7</v>
       </c>
-      <c r="AD3" s="1"/>
+      <c r="AD3" s="1">
+        <v>0</v>
+      </c>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
     </row>
@@ -5643,67 +9078,67 @@
         <v>0</v>
       </c>
       <c r="E4" s="1">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
         <v>11</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>12</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1">
-        <v>0</v>
-      </c>
-      <c r="T4" s="1">
-        <v>0</v>
-      </c>
-      <c r="U4" s="1">
-        <v>0</v>
-      </c>
-      <c r="V4" s="1">
-        <v>0</v>
-      </c>
-      <c r="W4" s="1">
-        <v>0</v>
-      </c>
-      <c r="X4" s="1">
-        <v>24</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>14</v>
       </c>
       <c r="Z4" s="1">
         <v>0</v>
@@ -5717,7 +9152,9 @@
       <c r="AC4" s="1">
         <v>7</v>
       </c>
-      <c r="AD4" s="1"/>
+      <c r="AD4" s="1">
+        <v>0</v>
+      </c>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
     </row>
@@ -5768,7 +9205,7 @@
         <v>3</v>
       </c>
       <c r="P5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="1">
         <v>2</v>
@@ -5809,7 +9246,9 @@
       <c r="AC5" s="1">
         <v>7</v>
       </c>
-      <c r="AD5" s="1"/>
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
     </row>
@@ -5827,46 +9266,46 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>14</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
         <v>22</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>23</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>12</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0</v>
       </c>
       <c r="S6" s="1">
         <v>0</v>
@@ -5901,7 +9340,9 @@
       <c r="AC6" s="1">
         <v>7</v>
       </c>
-      <c r="AD6" s="1"/>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
     </row>
@@ -5993,7 +9434,9 @@
       <c r="AC7" s="1">
         <v>7</v>
       </c>
-      <c r="AD7" s="1"/>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
     </row>
@@ -6011,13 +9454,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -6035,19 +9478,19 @@
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
         <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="P8" s="1">
         <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
@@ -6059,7 +9502,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="V8" s="1">
         <v>0</v>
@@ -6085,7 +9528,9 @@
       <c r="AC8" s="1">
         <v>7</v>
       </c>
-      <c r="AD8" s="1"/>
+      <c r="AD8" s="1">
+        <v>0</v>
+      </c>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
     </row>
@@ -6094,7 +9539,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -6177,7 +9622,9 @@
       <c r="AC9" s="1">
         <v>7</v>
       </c>
-      <c r="AD9" s="1"/>
+      <c r="AD9" s="1">
+        <v>0</v>
+      </c>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
     </row>
@@ -6201,7 +9648,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -6219,13 +9666,13 @@
         <v>0</v>
       </c>
       <c r="M10" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N10" s="1">
         <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>0</v>
@@ -6252,7 +9699,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="1">
         <v>0</v>
@@ -6269,7 +9716,9 @@
       <c r="AC10" s="1">
         <v>7</v>
       </c>
-      <c r="AD10" s="1"/>
+      <c r="AD10" s="1">
+        <v>0</v>
+      </c>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
     </row>
@@ -6361,7 +9810,9 @@
       <c r="AC11" s="1">
         <v>7</v>
       </c>
-      <c r="AD11" s="1"/>
+      <c r="AD11" s="1">
+        <v>0</v>
+      </c>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
     </row>
@@ -6385,7 +9836,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -6403,34 +9854,34 @@
         <v>0</v>
       </c>
       <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>23</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
         <v>13</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <v>22</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1">
-        <v>0</v>
-      </c>
-      <c r="S12" s="1">
-        <v>0</v>
-      </c>
-      <c r="T12" s="1">
-        <v>0</v>
-      </c>
-      <c r="U12" s="1">
-        <v>0</v>
-      </c>
-      <c r="V12" s="1">
-        <v>0</v>
       </c>
       <c r="W12" s="1">
         <v>0</v>
@@ -6439,7 +9890,7 @@
         <v>22</v>
       </c>
       <c r="Y12" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>0</v>
@@ -6453,7 +9904,9 @@
       <c r="AC12" s="1">
         <v>7</v>
       </c>
-      <c r="AD12" s="1"/>
+      <c r="AD12" s="1">
+        <v>0</v>
+      </c>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
     </row>
@@ -6545,232 +9998,346 @@
       <c r="AC13" s="1">
         <v>5</v>
       </c>
-      <c r="AD13" s="1"/>
+      <c r="AD13" s="1">
+        <v>0</v>
+      </c>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AF13">
-    <cfRule type="cellIs" dxfId="287" priority="55" operator="equal">
+  <conditionalFormatting sqref="AE2:AF13">
+    <cfRule type="cellIs" dxfId="737" priority="145" operator="equal">
       <formula>24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="736" priority="146" operator="equal">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="735" priority="147" operator="equal">
       <formula>23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="734" priority="148" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="733" priority="149" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="732" priority="150" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="731" priority="151" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="730" priority="152" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="729" priority="153" operator="equal">
       <formula>22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="728" priority="154" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="727" priority="155" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="726" priority="156" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="725" priority="157" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="724" priority="158" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="723" priority="159" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="722" priority="160" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="721" priority="161" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="720" priority="162" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE1:AF1">
+    <cfRule type="cellIs" dxfId="683" priority="91" operator="equal">
+      <formula>24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="682" priority="92" operator="equal">
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="681" priority="93" operator="equal">
+      <formula>23</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="680" priority="94" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="679" priority="95" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="678" priority="96" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="677" priority="97" operator="equal">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="676" priority="98" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="675" priority="99" operator="equal">
+      <formula>22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="674" priority="100" operator="equal">
+      <formula>21</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="673" priority="101" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="672" priority="102" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="671" priority="103" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="670" priority="104" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="669" priority="105" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="668" priority="106" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="667" priority="107" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="666" priority="108" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:AD13 AD2">
+    <cfRule type="cellIs" dxfId="665" priority="73" operator="equal">
+      <formula>24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="664" priority="74" operator="equal">
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="663" priority="75" operator="equal">
+      <formula>23</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="662" priority="76" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="661" priority="77" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="660" priority="78" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="659" priority="79" operator="equal">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="658" priority="80" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="657" priority="81" operator="equal">
+      <formula>22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="656" priority="82" operator="equal">
+      <formula>21</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="655" priority="83" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="654" priority="84" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="653" priority="85" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="652" priority="86" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="651" priority="87" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="650" priority="88" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="649" priority="89" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="648" priority="90" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:M1">
-    <cfRule type="cellIs" dxfId="269" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="629" priority="37" operator="equal">
       <formula>24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="628" priority="38" operator="equal">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="627" priority="39" operator="equal">
       <formula>23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="626" priority="40" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="625" priority="41" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="624" priority="42" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="623" priority="43" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="622" priority="44" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="621" priority="45" operator="equal">
       <formula>22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="620" priority="46" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="619" priority="47" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="618" priority="48" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="617" priority="49" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="616" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="615" priority="51" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="614" priority="52" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="613" priority="53" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="612" priority="54" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:AC1">
-    <cfRule type="cellIs" dxfId="251" priority="19" operator="equal">
+  <conditionalFormatting sqref="N1:AD1">
+    <cfRule type="cellIs" dxfId="611" priority="19" operator="equal">
       <formula>24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="610" priority="20" operator="equal">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="609" priority="21" operator="equal">
       <formula>23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="22" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="607" priority="23" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="606" priority="24" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="605" priority="25" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="604" priority="26" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="603" priority="27" operator="equal">
       <formula>22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="602" priority="28" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="601" priority="29" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="600" priority="30" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="599" priority="31" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="598" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="597" priority="33" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="596" priority="34" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="595" priority="35" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="594" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD1:AF1">
-    <cfRule type="cellIs" dxfId="233" priority="1" operator="equal">
+  <conditionalFormatting sqref="A2:AC2">
+    <cfRule type="cellIs" dxfId="323" priority="1" operator="equal">
       <formula>24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="2" operator="equal">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="3" operator="equal">
       <formula>23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="4" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="5" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="6" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="7" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="8" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="9" operator="equal">
       <formula>22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="10" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="11" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="13" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="16" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="17" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6781,10 +10348,1587 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="32" width="3.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1">
+        <v>32</v>
+      </c>
+      <c r="K2" s="1">
+        <v>31</v>
+      </c>
+      <c r="L2" s="1">
+        <v>32</v>
+      </c>
+      <c r="M2" s="1">
+        <v>31</v>
+      </c>
+      <c r="N2" s="1">
+        <v>32</v>
+      </c>
+      <c r="O2" s="1">
+        <v>33</v>
+      </c>
+      <c r="P2" s="1">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>40</v>
+      </c>
+      <c r="R2" s="1">
+        <v>39</v>
+      </c>
+      <c r="S2" s="1">
+        <v>40</v>
+      </c>
+      <c r="T2" s="1">
+        <v>39</v>
+      </c>
+      <c r="U2" s="1">
+        <v>40</v>
+      </c>
+      <c r="V2" s="1">
+        <v>38</v>
+      </c>
+      <c r="W2" s="1">
+        <v>37</v>
+      </c>
+      <c r="X2" s="1">
+        <v>36</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>37</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>36</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>37</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>34</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2</v>
+      </c>
+      <c r="N3" s="1">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>2</v>
+      </c>
+      <c r="R3" s="1">
+        <v>2</v>
+      </c>
+      <c r="S3" s="1">
+        <v>2</v>
+      </c>
+      <c r="T3" s="1">
+        <v>2</v>
+      </c>
+      <c r="U3" s="1">
+        <v>2</v>
+      </c>
+      <c r="V3" s="1">
+        <v>2</v>
+      </c>
+      <c r="W3" s="1">
+        <v>2</v>
+      </c>
+      <c r="X3" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>24</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>11</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>3</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>2</v>
+      </c>
+      <c r="R5" s="1">
+        <v>4</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>2</v>
+      </c>
+      <c r="W5" s="1">
+        <v>2</v>
+      </c>
+      <c r="X5" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>23</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>12</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>3</v>
+      </c>
+      <c r="P7" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>2</v>
+      </c>
+      <c r="R7" s="1">
+        <v>4</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>2</v>
+      </c>
+      <c r="W7" s="1">
+        <v>2</v>
+      </c>
+      <c r="X7" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>21</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>2</v>
+      </c>
+      <c r="N9" s="1">
+        <v>2</v>
+      </c>
+      <c r="O9" s="1">
+        <v>3</v>
+      </c>
+      <c r="P9" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>2</v>
+      </c>
+      <c r="R9" s="1">
+        <v>4</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1</v>
+      </c>
+      <c r="V9" s="1">
+        <v>2</v>
+      </c>
+      <c r="W9" s="1">
+        <v>2</v>
+      </c>
+      <c r="X9" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>23</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
+        <v>24</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>3</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>2</v>
+      </c>
+      <c r="R11" s="1">
+        <v>4</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1">
+        <v>2</v>
+      </c>
+      <c r="W11" s="1">
+        <v>2</v>
+      </c>
+      <c r="X11" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>22</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>22</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <v>13</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1">
+        <v>21</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>5</v>
+      </c>
+      <c r="M13" s="1">
+        <v>5</v>
+      </c>
+      <c r="N13" s="1">
+        <v>5</v>
+      </c>
+      <c r="O13" s="1">
+        <v>5</v>
+      </c>
+      <c r="P13" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>5</v>
+      </c>
+      <c r="R13" s="1">
+        <v>5</v>
+      </c>
+      <c r="S13" s="1">
+        <v>21</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>5</v>
+      </c>
+      <c r="V13" s="1">
+        <v>5</v>
+      </c>
+      <c r="W13" s="1">
+        <v>5</v>
+      </c>
+      <c r="X13" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>21</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="AE2:AF13">
+    <cfRule type="cellIs" dxfId="593" priority="163" operator="equal">
+      <formula>24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="592" priority="164" operator="equal">
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="591" priority="165" operator="equal">
+      <formula>23</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="590" priority="166" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="589" priority="167" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="588" priority="168" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="587" priority="169" operator="equal">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="586" priority="170" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="585" priority="171" operator="equal">
+      <formula>22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="584" priority="172" operator="equal">
+      <formula>21</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="583" priority="173" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="582" priority="174" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="581" priority="175" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="580" priority="176" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="579" priority="177" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="578" priority="178" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="577" priority="179" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="576" priority="180" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE1:AF1">
+    <cfRule type="cellIs" dxfId="575" priority="145" operator="equal">
+      <formula>24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="574" priority="146" operator="equal">
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="573" priority="147" operator="equal">
+      <formula>23</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="572" priority="148" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="571" priority="149" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="570" priority="150" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="569" priority="151" operator="equal">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="568" priority="152" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="567" priority="153" operator="equal">
+      <formula>22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="566" priority="154" operator="equal">
+      <formula>21</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="565" priority="155" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="564" priority="156" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="563" priority="157" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="562" priority="158" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="561" priority="159" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="560" priority="160" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="559" priority="161" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="558" priority="162" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:AD13 AD2">
+    <cfRule type="cellIs" dxfId="143" priority="55" operator="equal">
+      <formula>24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="56" operator="equal">
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="57" operator="equal">
+      <formula>23</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="58" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="59" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="60" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="61" operator="equal">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="62" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="63" operator="equal">
+      <formula>22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="64" operator="equal">
+      <formula>21</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="65" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="66" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="67" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="68" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="69" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="70" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="71" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="72" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:M1">
+    <cfRule type="cellIs" dxfId="107" priority="37" operator="equal">
+      <formula>24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="38" operator="equal">
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="39" operator="equal">
+      <formula>23</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="40" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="41" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="42" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="43" operator="equal">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="44" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="45" operator="equal">
+      <formula>22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="46" operator="equal">
+      <formula>21</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="47" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="48" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="49" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="50" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="51" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="52" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="53" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="54" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:AD1">
+    <cfRule type="cellIs" dxfId="71" priority="19" operator="equal">
+      <formula>24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="20" operator="equal">
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="21" operator="equal">
+      <formula>23</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="22" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="23" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="24" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="25" operator="equal">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="26" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="27" operator="equal">
+      <formula>22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="28" operator="equal">
+      <formula>21</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="29" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="30" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="31" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="32" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="33" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="34" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="35" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="36" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:AC2">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+      <formula>24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+      <formula>23</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="6" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="8" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="9" operator="equal">
+      <formula>22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
+      <formula>21</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A16" sqref="A16:AD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6868,4 +12012,1581 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="32" width="3.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1">
+        <v>32</v>
+      </c>
+      <c r="K2" s="1">
+        <v>31</v>
+      </c>
+      <c r="L2" s="1">
+        <v>32</v>
+      </c>
+      <c r="M2" s="1">
+        <v>31</v>
+      </c>
+      <c r="N2" s="1">
+        <v>32</v>
+      </c>
+      <c r="O2" s="1">
+        <v>33</v>
+      </c>
+      <c r="P2" s="1">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>40</v>
+      </c>
+      <c r="R2" s="1">
+        <v>39</v>
+      </c>
+      <c r="S2" s="1">
+        <v>40</v>
+      </c>
+      <c r="T2" s="1">
+        <v>39</v>
+      </c>
+      <c r="U2" s="1">
+        <v>40</v>
+      </c>
+      <c r="V2" s="1">
+        <v>38</v>
+      </c>
+      <c r="W2" s="1">
+        <v>37</v>
+      </c>
+      <c r="X2" s="1">
+        <v>36</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>37</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>36</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>37</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>34</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2</v>
+      </c>
+      <c r="N3" s="1">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>2</v>
+      </c>
+      <c r="R3" s="1">
+        <v>2</v>
+      </c>
+      <c r="S3" s="1">
+        <v>2</v>
+      </c>
+      <c r="T3" s="1">
+        <v>2</v>
+      </c>
+      <c r="U3" s="1">
+        <v>2</v>
+      </c>
+      <c r="V3" s="1">
+        <v>2</v>
+      </c>
+      <c r="W3" s="1">
+        <v>2</v>
+      </c>
+      <c r="X3" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>12</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>24</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>11</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>3</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>2</v>
+      </c>
+      <c r="R5" s="1">
+        <v>4</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>2</v>
+      </c>
+      <c r="W5" s="1">
+        <v>2</v>
+      </c>
+      <c r="X5" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>23</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>12</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>3</v>
+      </c>
+      <c r="P7" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>2</v>
+      </c>
+      <c r="R7" s="1">
+        <v>4</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>2</v>
+      </c>
+      <c r="W7" s="1">
+        <v>2</v>
+      </c>
+      <c r="X7" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
+        <v>15</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>2</v>
+      </c>
+      <c r="N9" s="1">
+        <v>2</v>
+      </c>
+      <c r="O9" s="1">
+        <v>3</v>
+      </c>
+      <c r="P9" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>2</v>
+      </c>
+      <c r="R9" s="1">
+        <v>4</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1</v>
+      </c>
+      <c r="V9" s="1">
+        <v>2</v>
+      </c>
+      <c r="W9" s="1">
+        <v>2</v>
+      </c>
+      <c r="X9" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>23</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
+        <v>24</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>3</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>2</v>
+      </c>
+      <c r="R11" s="1">
+        <v>4</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1">
+        <v>2</v>
+      </c>
+      <c r="W11" s="1">
+        <v>2</v>
+      </c>
+      <c r="X11" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>22</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>13</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>22</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <v>13</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1">
+        <v>21</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>5</v>
+      </c>
+      <c r="M13" s="1">
+        <v>5</v>
+      </c>
+      <c r="N13" s="1">
+        <v>5</v>
+      </c>
+      <c r="O13" s="1">
+        <v>5</v>
+      </c>
+      <c r="P13" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>5</v>
+      </c>
+      <c r="R13" s="1">
+        <v>5</v>
+      </c>
+      <c r="S13" s="1">
+        <v>21</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>5</v>
+      </c>
+      <c r="V13" s="1">
+        <v>5</v>
+      </c>
+      <c r="W13" s="1">
+        <v>5</v>
+      </c>
+      <c r="X13" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>21</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="AE2:AF13">
+    <cfRule type="cellIs" dxfId="413" priority="145" operator="equal">
+      <formula>24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="412" priority="146" operator="equal">
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="411" priority="147" operator="equal">
+      <formula>23</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="410" priority="148" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="409" priority="149" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="408" priority="150" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="407" priority="151" operator="equal">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="406" priority="152" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="405" priority="153" operator="equal">
+      <formula>22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="404" priority="154" operator="equal">
+      <formula>21</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="403" priority="155" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="402" priority="156" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="401" priority="157" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="400" priority="158" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="399" priority="159" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="398" priority="160" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="397" priority="161" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="396" priority="162" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE1:AF1">
+    <cfRule type="cellIs" dxfId="341" priority="73" operator="equal">
+      <formula>24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="340" priority="74" operator="equal">
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="339" priority="75" operator="equal">
+      <formula>23</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="338" priority="76" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="337" priority="77" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="336" priority="78" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="335" priority="79" operator="equal">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="334" priority="80" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="333" priority="81" operator="equal">
+      <formula>22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="332" priority="82" operator="equal">
+      <formula>21</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="331" priority="83" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="330" priority="84" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="329" priority="85" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="328" priority="86" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="327" priority="87" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="326" priority="88" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="325" priority="89" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="324" priority="90" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:AD13 AD2">
+    <cfRule type="cellIs" dxfId="287" priority="55" operator="equal">
+      <formula>24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="286" priority="56" operator="equal">
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="285" priority="57" operator="equal">
+      <formula>23</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="284" priority="58" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="283" priority="59" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="282" priority="60" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="281" priority="61" operator="equal">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="62" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="279" priority="63" operator="equal">
+      <formula>22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="278" priority="64" operator="equal">
+      <formula>21</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="65" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="276" priority="66" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="275" priority="67" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="68" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="273" priority="69" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="272" priority="70" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="271" priority="71" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="270" priority="72" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:AC2">
+    <cfRule type="cellIs" dxfId="251" priority="37" operator="equal">
+      <formula>24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="38" operator="equal">
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="249" priority="39" operator="equal">
+      <formula>23</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="40" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="41" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="42" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="245" priority="43" operator="equal">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="44" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="243" priority="45" operator="equal">
+      <formula>22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="242" priority="46" operator="equal">
+      <formula>21</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="47" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="48" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="239" priority="49" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="50" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="237" priority="51" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="236" priority="52" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="53" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="54" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:M1">
+    <cfRule type="cellIs" dxfId="215" priority="19" operator="equal">
+      <formula>24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="20" operator="equal">
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="21" operator="equal">
+      <formula>23</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="22" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="211" priority="23" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="24" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="209" priority="25" operator="equal">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="26" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="207" priority="27" operator="equal">
+      <formula>22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="28" operator="equal">
+      <formula>21</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="29" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="30" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="203" priority="31" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="32" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="33" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="34" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="35" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="36" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:AD1">
+    <cfRule type="cellIs" dxfId="179" priority="1" operator="equal">
+      <formula>24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="2" operator="equal">
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="3" operator="equal">
+      <formula>23</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="4" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="5" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="6" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="7" operator="equal">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="8" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="9" operator="equal">
+      <formula>22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="10" operator="equal">
+      <formula>21</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="11" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="12" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="167" priority="13" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="15" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="16" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="17" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="18" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>